--- a/CBS Excel.xlsx
+++ b/CBS Excel.xlsx
@@ -5,27 +5,31 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Praveen\source\repos\Gamut.UI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praveen\source\repos\Gamut.UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C94A0FFF-841C-4D38-8D2C-AEFABC612B2E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F754FA4C-2DBC-478D-A3B3-59B2F96275E5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Home Scores" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
+    <sheet name="Home Scores" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId6"/>
+    <sheet name="SnapShot-SAFE Data" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$B$2:$DF$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$2:$DR$32</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="295">
   <si>
     <t>Internal Rating</t>
   </si>
@@ -583,6 +587,333 @@
   </si>
   <si>
     <t>communication</t>
+  </si>
+  <si>
+    <t>tatapower</t>
+  </si>
+  <si>
+    <t>RIL</t>
+  </si>
+  <si>
+    <t>AutlAuto</t>
+  </si>
+  <si>
+    <t>HL</t>
+  </si>
+  <si>
+    <t>ICICIHFL</t>
+  </si>
+  <si>
+    <t>Jaypee</t>
+  </si>
+  <si>
+    <t>LICHFL</t>
+  </si>
+  <si>
+    <t>maruti</t>
+  </si>
+  <si>
+    <t>Patanjali</t>
+  </si>
+  <si>
+    <t>TataPower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> set cust_id='</t>
+  </si>
+  <si>
+    <t>' where cust_id='</t>
+  </si>
+  <si>
+    <t>CustomerDataMapping</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Cust_Id</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>praveen</t>
+  </si>
+  <si>
+    <t>snapshotType</t>
+  </si>
+  <si>
+    <t>snapshotDescription</t>
+  </si>
+  <si>
+    <t>data1Description</t>
+  </si>
+  <si>
+    <t>data1Value</t>
+  </si>
+  <si>
+    <t>data2Description</t>
+  </si>
+  <si>
+    <t>data2Value</t>
+  </si>
+  <si>
+    <t>data3Description</t>
+  </si>
+  <si>
+    <t>data3Value</t>
+  </si>
+  <si>
+    <t>data4Description</t>
+  </si>
+  <si>
+    <t>data4Value</t>
+  </si>
+  <si>
+    <t>data5Description</t>
+  </si>
+  <si>
+    <t>data5Value</t>
+  </si>
+  <si>
+    <t>compiledDate</t>
+  </si>
+  <si>
+    <t>SortOrder</t>
+  </si>
+  <si>
+    <t>lastUpdatedOn</t>
+  </si>
+  <si>
+    <t>lastUpdatedBy</t>
+  </si>
+  <si>
+    <t>Account Renewed</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Past days</t>
+  </si>
+  <si>
+    <t>Account Reviewed</t>
+  </si>
+  <si>
+    <t>I / II</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Upto</t>
+  </si>
+  <si>
+    <t>Cheque Returns (Inward)</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Avg Amt</t>
+  </si>
+  <si>
+    <t>Cheque Returns (Outward)</t>
+  </si>
+  <si>
+    <t>Amt %</t>
+  </si>
+  <si>
+    <t>Exceeding in Operative A/c</t>
+  </si>
+  <si>
+    <t>Occassions</t>
+  </si>
+  <si>
+    <t>No. of Days</t>
+  </si>
+  <si>
+    <t>Intraday TOD</t>
+  </si>
+  <si>
+    <t>Export Bills O/s as on date</t>
+  </si>
+  <si>
+    <t>Avg Days</t>
+  </si>
+  <si>
+    <t>Individual Bill Details Closure</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>Avg delay</t>
+  </si>
+  <si>
+    <t>Avg Amount</t>
+  </si>
+  <si>
+    <t>Individual Bill Details</t>
+  </si>
+  <si>
+    <t>Bill No</t>
+  </si>
+  <si>
+    <t>LC2</t>
+  </si>
+  <si>
+    <t>O/s Amount</t>
+  </si>
+  <si>
+    <t>Delay Days</t>
+  </si>
+  <si>
+    <t>LC3</t>
+  </si>
+  <si>
+    <t>LC4</t>
+  </si>
+  <si>
+    <t>LC5</t>
+  </si>
+  <si>
+    <t>PCL Due for Closure</t>
+  </si>
+  <si>
+    <t>Individual PCL Details</t>
+  </si>
+  <si>
+    <t>PFC2</t>
+  </si>
+  <si>
+    <t>PC1</t>
+  </si>
+  <si>
+    <t>PFC3</t>
+  </si>
+  <si>
+    <t>PC2</t>
+  </si>
+  <si>
+    <t>PFC4</t>
+  </si>
+  <si>
+    <t>PC3</t>
+  </si>
+  <si>
+    <t>PFC5</t>
+  </si>
+  <si>
+    <t>PC4</t>
+  </si>
+  <si>
+    <t>Bills Under LC Due for payment</t>
+  </si>
+  <si>
+    <t>Amout</t>
+  </si>
+  <si>
+    <t>Individual LG Details</t>
+  </si>
+  <si>
+    <t>BG1</t>
+  </si>
+  <si>
+    <t>BG2</t>
+  </si>
+  <si>
+    <t>BG3</t>
+  </si>
+  <si>
+    <t>BG4</t>
+  </si>
+  <si>
+    <t>BG5</t>
+  </si>
+  <si>
+    <t>Working Capital</t>
+  </si>
+  <si>
+    <t>Lowest Balance</t>
+  </si>
+  <si>
+    <t>Highest Balance</t>
+  </si>
+  <si>
+    <t>Avg Balance</t>
+  </si>
+  <si>
+    <t>Utilisation %</t>
+  </si>
+  <si>
+    <t>Revenue Earned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previous Period </t>
+  </si>
+  <si>
+    <t>SO/C124</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Inspection</t>
+  </si>
+  <si>
+    <t>Renewal</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Restuctured</t>
+  </si>
+  <si>
+    <t>Margin</t>
+  </si>
+  <si>
+    <t>Ratings</t>
+  </si>
+  <si>
+    <t>Documents</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>All Parmeters</t>
+  </si>
+  <si>
+    <t>RelatedTo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        &lt;option data-ng-selected="true" value="Rectified"&gt;Rectified&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        &lt;option value="Unrectified"&gt;Unrectified&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        &lt;option value="NA"&gt;NA&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        &lt;option value="SMA Report"&gt;SMA Report&lt;/option&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        &lt;option value="Due for Renewal"&gt;Due for Renewal&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        &lt;option value="Interest/Penal"&gt;Interest/Penal&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                </t>
   </si>
 </sst>
 </file>
@@ -732,7 +1063,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -821,10 +1152,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -833,16 +1171,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1184,10 +1518,10 @@
   <dimension ref="A1:DR44"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="DA3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AS4" sqref="AS4"/>
+      <selection pane="bottomRight" activeCell="AK3" sqref="AK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,30 +1593,30 @@
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="50" t="s">
+      <c r="O1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50" t="s">
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
       <c r="AP1" t="s">
         <v>181</v>
       </c>
@@ -1302,87 +1636,87 @@
       <c r="AY1" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="BB1" s="51">
+      <c r="BB1" s="50">
         <v>43190</v>
       </c>
-      <c r="BC1" s="50"/>
-      <c r="BD1" s="50"/>
-      <c r="BE1" s="51">
+      <c r="BC1" s="49"/>
+      <c r="BD1" s="49"/>
+      <c r="BE1" s="50">
         <v>42739</v>
       </c>
-      <c r="BF1" s="50"/>
-      <c r="BG1" s="50"/>
-      <c r="BH1" s="51">
+      <c r="BF1" s="49"/>
+      <c r="BG1" s="49"/>
+      <c r="BH1" s="50">
         <v>42525</v>
       </c>
-      <c r="BI1" s="50"/>
-      <c r="BJ1" s="50"/>
-      <c r="BK1" s="46">
+      <c r="BI1" s="49"/>
+      <c r="BJ1" s="49"/>
+      <c r="BK1" s="47">
         <v>43190</v>
       </c>
-      <c r="BL1" s="47"/>
-      <c r="BM1" s="47"/>
-      <c r="BN1" s="46">
+      <c r="BL1" s="48"/>
+      <c r="BM1" s="48"/>
+      <c r="BN1" s="47">
         <v>42739</v>
       </c>
-      <c r="BO1" s="47"/>
-      <c r="BP1" s="47"/>
-      <c r="BQ1" s="46">
+      <c r="BO1" s="48"/>
+      <c r="BP1" s="48"/>
+      <c r="BQ1" s="47">
         <v>42525</v>
       </c>
-      <c r="BR1" s="47"/>
-      <c r="BS1" s="47"/>
-      <c r="BT1" s="51">
+      <c r="BR1" s="48"/>
+      <c r="BS1" s="48"/>
+      <c r="BT1" s="50">
         <v>43190</v>
       </c>
-      <c r="BU1" s="50"/>
-      <c r="BV1" s="50"/>
-      <c r="BW1" s="50"/>
-      <c r="BX1" s="51">
+      <c r="BU1" s="49"/>
+      <c r="BV1" s="49"/>
+      <c r="BW1" s="49"/>
+      <c r="BX1" s="50">
         <v>42739</v>
       </c>
-      <c r="BY1" s="50"/>
-      <c r="BZ1" s="50"/>
-      <c r="CA1" s="50"/>
-      <c r="CB1" s="51">
+      <c r="BY1" s="49"/>
+      <c r="BZ1" s="49"/>
+      <c r="CA1" s="49"/>
+      <c r="CB1" s="50">
         <v>42525</v>
       </c>
-      <c r="CC1" s="50"/>
-      <c r="CD1" s="50"/>
-      <c r="CE1" s="50"/>
-      <c r="CF1" s="46">
+      <c r="CC1" s="49"/>
+      <c r="CD1" s="49"/>
+      <c r="CE1" s="49"/>
+      <c r="CF1" s="47">
         <v>43190</v>
       </c>
-      <c r="CG1" s="47"/>
-      <c r="CH1" s="47"/>
-      <c r="CI1" s="47"/>
-      <c r="CJ1" s="46">
+      <c r="CG1" s="48"/>
+      <c r="CH1" s="48"/>
+      <c r="CI1" s="48"/>
+      <c r="CJ1" s="47">
         <v>42739</v>
       </c>
-      <c r="CK1" s="47"/>
-      <c r="CL1" s="47"/>
-      <c r="CM1" s="47"/>
-      <c r="CN1" s="46">
+      <c r="CK1" s="48"/>
+      <c r="CL1" s="48"/>
+      <c r="CM1" s="48"/>
+      <c r="CN1" s="47">
         <v>42525</v>
       </c>
-      <c r="CO1" s="47"/>
-      <c r="CP1" s="47"/>
-      <c r="CQ1" s="47"/>
-      <c r="CR1" s="48">
+      <c r="CO1" s="48"/>
+      <c r="CP1" s="48"/>
+      <c r="CQ1" s="48"/>
+      <c r="CR1" s="51">
         <v>43190</v>
       </c>
-      <c r="CS1" s="49"/>
-      <c r="CT1" s="49"/>
-      <c r="CU1" s="48">
+      <c r="CS1" s="52"/>
+      <c r="CT1" s="52"/>
+      <c r="CU1" s="51">
         <v>42739</v>
       </c>
-      <c r="CV1" s="49"/>
-      <c r="CW1" s="49"/>
-      <c r="CX1" s="48">
+      <c r="CV1" s="52"/>
+      <c r="CW1" s="52"/>
+      <c r="CX1" s="51">
         <v>42525</v>
       </c>
-      <c r="CY1" s="49"/>
-      <c r="CZ1" s="49"/>
+      <c r="CY1" s="52"/>
+      <c r="CZ1" s="52"/>
       <c r="DF1" t="s">
         <v>135</v>
       </c>
@@ -8778,7 +9112,7 @@
       <c r="AP30" s="26">
         <v>38698</v>
       </c>
-      <c r="AQ30" s="53">
+      <c r="AQ30" s="46">
         <v>38990</v>
       </c>
       <c r="AR30" s="26">
@@ -9496,11 +9830,16 @@
       <c r="P44" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:DF32" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:DR32" xr:uid="{6EC246FF-0A8E-40E9-83D8-1F1A7AD313F2}"/>
   <sortState ref="A3:DB32">
     <sortCondition ref="A3:A32"/>
   </sortState>
   <mergeCells count="17">
+    <mergeCell ref="CJ1:CM1"/>
+    <mergeCell ref="CN1:CQ1"/>
+    <mergeCell ref="CR1:CT1"/>
+    <mergeCell ref="CU1:CW1"/>
+    <mergeCell ref="CX1:CZ1"/>
     <mergeCell ref="CF1:CI1"/>
     <mergeCell ref="O1:X1"/>
     <mergeCell ref="Y1:AH1"/>
@@ -9513,11 +9852,6 @@
     <mergeCell ref="BT1:BW1"/>
     <mergeCell ref="BX1:CA1"/>
     <mergeCell ref="CB1:CE1"/>
-    <mergeCell ref="CJ1:CM1"/>
-    <mergeCell ref="CN1:CQ1"/>
-    <mergeCell ref="CR1:CT1"/>
-    <mergeCell ref="CU1:CW1"/>
-    <mergeCell ref="CX1:CZ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9525,11 +9859,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6864F1-CBC7-4F60-905B-4517BC2424EB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9538,10 +9884,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="52"/>
+      <c r="C1" s="53"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -9650,12 +9996,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9756,4 +10102,3199 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E94082E-04AF-4696-8E4F-3622796F7035}">
+  <dimension ref="A1:K65"/>
+  <sheetViews>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="61.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>123456780</v>
+      </c>
+      <c r="B1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" t="str">
+        <f>$B$12</f>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1">
+        <f>A1</f>
+        <v>123456780</v>
+      </c>
+      <c r="I1" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J1" t="str">
+        <f>C1</f>
+        <v>HCC</v>
+      </c>
+      <c r="K1" t="str">
+        <f>_xlfn.CONCAT(E1,F1,G1,H1,I1,J1,"'")</f>
+        <v>Update CustomerDataMapping set cust_id='123456780' where cust_id='HCC'</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>123456789</v>
+      </c>
+      <c r="B2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F10" si="0">$B$12</f>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2">
+        <f>A2</f>
+        <v>123456789</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J2" t="str">
+        <f>C2</f>
+        <v>TataPower</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K10" si="1">_xlfn.CONCAT(E2,F2,G2,H2,I2,J2,"'")</f>
+        <v>Update CustomerDataMapping set cust_id='123456789' where cust_id='TataPower'</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>234567891</v>
+      </c>
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3">
+        <f>A3</f>
+        <v>234567891</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J3" t="str">
+        <f>C3</f>
+        <v>RIL</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="1"/>
+        <v>Update CustomerDataMapping set cust_id='234567891' where cust_id='RIL'</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>345678912</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4">
+        <f>A4</f>
+        <v>345678912</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J4" t="str">
+        <f>C4</f>
+        <v>ICICIHFL</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
+        <v>Update CustomerDataMapping set cust_id='345678912' where cust_id='ICICIHFL'</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>456789123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H5">
+        <f>A5</f>
+        <v>456789123</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J5" t="str">
+        <f>C5</f>
+        <v>LICHFL</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v>Update CustomerDataMapping set cust_id='456789123' where cust_id='LICHFL'</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>567891234</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6">
+        <f>A6</f>
+        <v>567891234</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J6" t="str">
+        <f>C6</f>
+        <v>AutlAuto</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>Update CustomerDataMapping set cust_id='567891234' where cust_id='AutlAuto'</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>678912345</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7">
+        <f>A7</f>
+        <v>678912345</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J7" t="str">
+        <f>C7</f>
+        <v>maruti</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v>Update CustomerDataMapping set cust_id='678912345' where cust_id='maruti'</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>789123456</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H8">
+        <f>A8</f>
+        <v>789123456</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J8" t="str">
+        <f>C8</f>
+        <v>Patanjali</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>Update CustomerDataMapping set cust_id='789123456' where cust_id='Patanjali'</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>891234567</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H9">
+        <f>A9</f>
+        <v>891234567</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J9" t="str">
+        <f>C9</f>
+        <v>HL</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v>Update CustomerDataMapping set cust_id='891234567' where cust_id='HL'</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>912345678</v>
+      </c>
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G10" t="s">
+        <v>197</v>
+      </c>
+      <c r="H10">
+        <f>A10</f>
+        <v>912345678</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J10" t="str">
+        <f>C10</f>
+        <v>Jaypee</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v>Update CustomerDataMapping set cust_id='912345678' where cust_id='Jaypee'</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>123456789</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14">
+        <v>7771001</v>
+      </c>
+      <c r="E14" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" t="str">
+        <f>$B$12</f>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G14" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14">
+        <f>A14</f>
+        <v>123456789</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J14">
+        <f>C14</f>
+        <v>7771001</v>
+      </c>
+      <c r="K14" t="str">
+        <f>_xlfn.CONCAT(E14,F14,G14,H14,I14,J14,"'")</f>
+        <v>Update CustomerDataMapping set cust_id='123456789' where cust_id='7771001'</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>567891234</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15">
+        <v>7771002</v>
+      </c>
+      <c r="E15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" ref="F15:F43" si="2">$B$12</f>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H15">
+        <f>A15</f>
+        <v>567891234</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J15">
+        <f>C15</f>
+        <v>7771002</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" ref="K15:K23" si="3">_xlfn.CONCAT(E15,F15,G15,H15,I15,J15,"'")</f>
+        <v>Update CustomerDataMapping set cust_id='567891234' where cust_id='7771002'</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>123456780</v>
+      </c>
+      <c r="C16">
+        <v>7771003</v>
+      </c>
+      <c r="E16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="2"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G16" t="s">
+        <v>197</v>
+      </c>
+      <c r="H16">
+        <f>A16</f>
+        <v>123456780</v>
+      </c>
+      <c r="I16" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J16">
+        <f>C16</f>
+        <v>7771003</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="3"/>
+        <v>Update CustomerDataMapping set cust_id='123456780' where cust_id='7771003'</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>123456789</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17">
+        <v>7772001</v>
+      </c>
+      <c r="E17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="2"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G17" t="s">
+        <v>197</v>
+      </c>
+      <c r="H17">
+        <f>A17</f>
+        <v>123456789</v>
+      </c>
+      <c r="I17" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J17">
+        <f>C17</f>
+        <v>7772001</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="3"/>
+        <v>Update CustomerDataMapping set cust_id='123456789' where cust_id='7772001'</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>345678912</v>
+      </c>
+      <c r="C18">
+        <v>7772002</v>
+      </c>
+      <c r="E18" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="2"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G18" t="s">
+        <v>197</v>
+      </c>
+      <c r="H18">
+        <f>A18</f>
+        <v>345678912</v>
+      </c>
+      <c r="I18" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J18">
+        <f>C18</f>
+        <v>7772002</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="3"/>
+        <v>Update CustomerDataMapping set cust_id='345678912' where cust_id='7772002'</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>345678912</v>
+      </c>
+      <c r="C19">
+        <v>7772003</v>
+      </c>
+      <c r="E19" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="2"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G19" t="s">
+        <v>197</v>
+      </c>
+      <c r="H19">
+        <f>A19</f>
+        <v>345678912</v>
+      </c>
+      <c r="I19" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J19">
+        <f>C19</f>
+        <v>7772003</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="3"/>
+        <v>Update CustomerDataMapping set cust_id='345678912' where cust_id='7772003'</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>345678912</v>
+      </c>
+      <c r="C20">
+        <v>7772004</v>
+      </c>
+      <c r="E20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="2"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G20" t="s">
+        <v>197</v>
+      </c>
+      <c r="H20">
+        <f>A20</f>
+        <v>345678912</v>
+      </c>
+      <c r="I20" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J20">
+        <f>C20</f>
+        <v>7772004</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="3"/>
+        <v>Update CustomerDataMapping set cust_id='345678912' where cust_id='7772004'</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>345678912</v>
+      </c>
+      <c r="C21">
+        <v>7772005</v>
+      </c>
+      <c r="E21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="2"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G21" t="s">
+        <v>197</v>
+      </c>
+      <c r="H21">
+        <f>A21</f>
+        <v>345678912</v>
+      </c>
+      <c r="I21" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21">
+        <f>C21</f>
+        <v>7772005</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="3"/>
+        <v>Update CustomerDataMapping set cust_id='345678912' where cust_id='7772005'</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>456789123</v>
+      </c>
+      <c r="C22">
+        <v>7772006</v>
+      </c>
+      <c r="E22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="2"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G22" t="s">
+        <v>197</v>
+      </c>
+      <c r="H22">
+        <f>A22</f>
+        <v>456789123</v>
+      </c>
+      <c r="I22" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J22">
+        <f>C22</f>
+        <v>7772006</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="3"/>
+        <v>Update CustomerDataMapping set cust_id='456789123' where cust_id='7772006'</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>456789123</v>
+      </c>
+      <c r="C23">
+        <v>7772007</v>
+      </c>
+      <c r="E23" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="2"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G23" t="s">
+        <v>197</v>
+      </c>
+      <c r="H23">
+        <f>A23</f>
+        <v>456789123</v>
+      </c>
+      <c r="I23" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23">
+        <f>C23</f>
+        <v>7772007</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="3"/>
+        <v>Update CustomerDataMapping set cust_id='456789123' where cust_id='7772007'</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>456789123</v>
+      </c>
+      <c r="C24">
+        <v>7772008</v>
+      </c>
+      <c r="E24" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="2"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G24" t="s">
+        <v>197</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H43" si="4">A24</f>
+        <v>456789123</v>
+      </c>
+      <c r="I24" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24:J43" si="5">C24</f>
+        <v>7772008</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" ref="K24:K43" si="6">_xlfn.CONCAT(E24,F24,G24,H24,I24,J24,"'")</f>
+        <v>Update CustomerDataMapping set cust_id='456789123' where cust_id='7772008'</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>456789123</v>
+      </c>
+      <c r="C25">
+        <v>7772009</v>
+      </c>
+      <c r="E25" t="s">
+        <v>196</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="2"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G25" t="s">
+        <v>197</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>456789123</v>
+      </c>
+      <c r="I25" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>7772009</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="6"/>
+        <v>Update CustomerDataMapping set cust_id='456789123' where cust_id='7772009'</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>456789123</v>
+      </c>
+      <c r="C26">
+        <v>7772010</v>
+      </c>
+      <c r="E26" t="s">
+        <v>196</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="2"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G26" t="s">
+        <v>197</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>456789123</v>
+      </c>
+      <c r="I26" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>7772010</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="6"/>
+        <v>Update CustomerDataMapping set cust_id='456789123' where cust_id='7772010'</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>567891234</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27">
+        <v>7772011</v>
+      </c>
+      <c r="E27" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="2"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G27" t="s">
+        <v>197</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="4"/>
+        <v>567891234</v>
+      </c>
+      <c r="I27" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>7772011</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="6"/>
+        <v>Update CustomerDataMapping set cust_id='567891234' where cust_id='7772011'</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>678912345</v>
+      </c>
+      <c r="C28">
+        <v>7772012</v>
+      </c>
+      <c r="E28" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="2"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G28" t="s">
+        <v>197</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>678912345</v>
+      </c>
+      <c r="I28" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>7772012</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="6"/>
+        <v>Update CustomerDataMapping set cust_id='678912345' where cust_id='7772012'</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>789123456</v>
+      </c>
+      <c r="C29">
+        <v>7772014</v>
+      </c>
+      <c r="E29" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="2"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G29" t="s">
+        <v>197</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>789123456</v>
+      </c>
+      <c r="I29" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>7772014</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="6"/>
+        <v>Update CustomerDataMapping set cust_id='789123456' where cust_id='7772014'</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>912345678</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30">
+        <v>7772015</v>
+      </c>
+      <c r="E30" t="s">
+        <v>196</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="2"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G30" t="s">
+        <v>197</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="4"/>
+        <v>912345678</v>
+      </c>
+      <c r="I30" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>7772015</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="6"/>
+        <v>Update CustomerDataMapping set cust_id='912345678' where cust_id='7772015'</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>123456780</v>
+      </c>
+      <c r="C31">
+        <v>7772016</v>
+      </c>
+      <c r="E31" t="s">
+        <v>196</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="2"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G31" t="s">
+        <v>197</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="4"/>
+        <v>123456780</v>
+      </c>
+      <c r="I31" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>7772016</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="6"/>
+        <v>Update CustomerDataMapping set cust_id='123456780' where cust_id='7772016'</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>123456780</v>
+      </c>
+      <c r="C32">
+        <v>7772017</v>
+      </c>
+      <c r="E32" t="s">
+        <v>196</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="2"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G32" t="s">
+        <v>197</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="4"/>
+        <v>123456780</v>
+      </c>
+      <c r="I32" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>7772017</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="6"/>
+        <v>Update CustomerDataMapping set cust_id='123456780' where cust_id='7772017'</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>234567891</v>
+      </c>
+      <c r="C33">
+        <v>7773001</v>
+      </c>
+      <c r="E33" t="s">
+        <v>196</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="2"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G33" t="s">
+        <v>197</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="4"/>
+        <v>234567891</v>
+      </c>
+      <c r="I33" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>7773001</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="6"/>
+        <v>Update CustomerDataMapping set cust_id='234567891' where cust_id='7773001'</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>234567891</v>
+      </c>
+      <c r="C34">
+        <v>7773002</v>
+      </c>
+      <c r="E34" t="s">
+        <v>196</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="2"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G34" t="s">
+        <v>197</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="4"/>
+        <v>234567891</v>
+      </c>
+      <c r="I34" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>7773002</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="6"/>
+        <v>Update CustomerDataMapping set cust_id='234567891' where cust_id='7773002'</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>234567891</v>
+      </c>
+      <c r="C35">
+        <v>7773003</v>
+      </c>
+      <c r="E35" t="s">
+        <v>196</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="2"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G35" t="s">
+        <v>197</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="4"/>
+        <v>234567891</v>
+      </c>
+      <c r="I35" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>7773003</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="6"/>
+        <v>Update CustomerDataMapping set cust_id='234567891' where cust_id='7773003'</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>234567891</v>
+      </c>
+      <c r="C36">
+        <v>7773004</v>
+      </c>
+      <c r="E36" t="s">
+        <v>196</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="2"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G36" t="s">
+        <v>197</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="4"/>
+        <v>234567891</v>
+      </c>
+      <c r="I36" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="5"/>
+        <v>7773004</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="6"/>
+        <v>Update CustomerDataMapping set cust_id='234567891' where cust_id='7773004'</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>567891234</v>
+      </c>
+      <c r="C37">
+        <v>7774001</v>
+      </c>
+      <c r="E37" t="s">
+        <v>196</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="2"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G37" t="s">
+        <v>197</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="4"/>
+        <v>567891234</v>
+      </c>
+      <c r="I37" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>7774001</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="6"/>
+        <v>Update CustomerDataMapping set cust_id='567891234' where cust_id='7774001'</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>891234567</v>
+      </c>
+      <c r="C38">
+        <v>7774002</v>
+      </c>
+      <c r="E38" t="s">
+        <v>196</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="2"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G38" t="s">
+        <v>197</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="4"/>
+        <v>891234567</v>
+      </c>
+      <c r="I38" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>7774002</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="6"/>
+        <v>Update CustomerDataMapping set cust_id='891234567' where cust_id='7774002'</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>567891234</v>
+      </c>
+      <c r="C39">
+        <v>7775001</v>
+      </c>
+      <c r="E39" t="s">
+        <v>196</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="2"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G39" t="s">
+        <v>197</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="4"/>
+        <v>567891234</v>
+      </c>
+      <c r="I39" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>7775001</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="6"/>
+        <v>Update CustomerDataMapping set cust_id='567891234' where cust_id='7775001'</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>891234567</v>
+      </c>
+      <c r="C40">
+        <v>7775002</v>
+      </c>
+      <c r="E40" t="s">
+        <v>196</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="2"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G40" t="s">
+        <v>197</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="4"/>
+        <v>891234567</v>
+      </c>
+      <c r="I40" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>7775002</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="6"/>
+        <v>Update CustomerDataMapping set cust_id='891234567' where cust_id='7775002'</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>912345678</v>
+      </c>
+      <c r="C41">
+        <v>7776001</v>
+      </c>
+      <c r="E41" t="s">
+        <v>196</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="2"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G41" t="s">
+        <v>197</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="4"/>
+        <v>912345678</v>
+      </c>
+      <c r="I41" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="5"/>
+        <v>7776001</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="6"/>
+        <v>Update CustomerDataMapping set cust_id='912345678' where cust_id='7776001'</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>123456780</v>
+      </c>
+      <c r="C42">
+        <v>7776002</v>
+      </c>
+      <c r="E42" t="s">
+        <v>196</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="2"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G42" t="s">
+        <v>197</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="4"/>
+        <v>123456780</v>
+      </c>
+      <c r="I42" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="5"/>
+        <v>7776002</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="6"/>
+        <v>Update CustomerDataMapping set cust_id='123456780' where cust_id='7776002'</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>123456789</v>
+      </c>
+      <c r="C43" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" t="s">
+        <v>196</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="2"/>
+        <v>CustomerDataMapping</v>
+      </c>
+      <c r="G43" t="s">
+        <v>197</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="4"/>
+        <v>123456789</v>
+      </c>
+      <c r="I43" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="5"/>
+        <v>BG123</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="6"/>
+        <v>Update CustomerDataMapping set cust_id='123456789' where cust_id='BG123'</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+    </row>
+    <row r="49" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+    </row>
+    <row r="50" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+    </row>
+    <row r="51" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J51" s="55"/>
+      <c r="K51" s="55"/>
+    </row>
+    <row r="52" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
+    </row>
+    <row r="53" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J53" s="55"/>
+      <c r="K53" s="55"/>
+    </row>
+    <row r="54" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J54" s="55"/>
+      <c r="K54" s="55"/>
+    </row>
+    <row r="55" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
+    </row>
+    <row r="56" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+    </row>
+    <row r="57" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J57" s="55"/>
+      <c r="K57" s="55"/>
+    </row>
+    <row r="58" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J58" s="55"/>
+      <c r="K58" s="55"/>
+    </row>
+    <row r="59" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J59" s="55"/>
+      <c r="K59" s="55"/>
+    </row>
+    <row r="60" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J60" s="55"/>
+      <c r="K60" s="55"/>
+    </row>
+    <row r="61" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J61" s="55"/>
+      <c r="K61" s="55"/>
+    </row>
+    <row r="62" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J62" s="55"/>
+      <c r="K62" s="55"/>
+    </row>
+    <row r="63" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J63" s="55"/>
+      <c r="K63" s="55"/>
+    </row>
+    <row r="64" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J64" s="55"/>
+      <c r="K64" s="55"/>
+    </row>
+    <row r="65" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J65" s="55"/>
+      <c r="K65" s="55"/>
+    </row>
+  </sheetData>
+  <sortState ref="C14:C43">
+    <sortCondition ref="C14:C43"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E4D0C5-47B2-4280-91B6-89DD02CA629B}">
+  <dimension ref="B1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" t="s">
+        <v>278</v>
+      </c>
+      <c r="J5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" t="s">
+        <v>281</v>
+      </c>
+      <c r="J8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" t="s">
+        <v>287</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C12" t="s">
+        <v>287</v>
+      </c>
+      <c r="D12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C14" t="s">
+        <v>287</v>
+      </c>
+      <c r="D14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491FBA2C-CB8C-44DE-80CA-1B481B0B5E16}">
+  <dimension ref="A1:R30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="A1:R30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P1" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>218</v>
+      </c>
+      <c r="R1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>678912345</v>
+      </c>
+      <c r="C2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="46">
+        <v>42826</v>
+      </c>
+      <c r="G2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H2" s="46">
+        <v>43191</v>
+      </c>
+      <c r="I2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J2">
+        <v>40</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>202</v>
+      </c>
+      <c r="O2" s="56">
+        <v>42952</v>
+      </c>
+      <c r="P2" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q2" s="56">
+        <v>43281</v>
+      </c>
+      <c r="R2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>678912345</v>
+      </c>
+      <c r="C3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H3" s="46">
+        <v>43191</v>
+      </c>
+      <c r="I3" t="s">
+        <v>222</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
+      </c>
+      <c r="M3">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>202</v>
+      </c>
+      <c r="O3" s="56">
+        <v>42952</v>
+      </c>
+      <c r="P3" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q3" s="56">
+        <v>43281</v>
+      </c>
+      <c r="R3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>678912345</v>
+      </c>
+      <c r="C4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>32432</v>
+      </c>
+      <c r="I4" t="s">
+        <v>229</v>
+      </c>
+      <c r="M4">
+        <v>30</v>
+      </c>
+      <c r="N4" t="s">
+        <v>202</v>
+      </c>
+      <c r="O4" s="56">
+        <v>42952</v>
+      </c>
+      <c r="P4" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q4" s="56">
+        <v>43281</v>
+      </c>
+      <c r="R4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>678912345</v>
+      </c>
+      <c r="C5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5">
+        <v>342432</v>
+      </c>
+      <c r="I5" t="s">
+        <v>229</v>
+      </c>
+      <c r="M5">
+        <v>40</v>
+      </c>
+      <c r="N5" t="s">
+        <v>202</v>
+      </c>
+      <c r="O5" s="56">
+        <v>42952</v>
+      </c>
+      <c r="P5" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q5" s="56">
+        <v>43281</v>
+      </c>
+      <c r="R5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>678912345</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <v>34343</v>
+      </c>
+      <c r="I6" t="s">
+        <v>229</v>
+      </c>
+      <c r="M6">
+        <v>50</v>
+      </c>
+      <c r="N6" t="s">
+        <v>202</v>
+      </c>
+      <c r="O6" s="56">
+        <v>42952</v>
+      </c>
+      <c r="P6" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q6" s="56">
+        <v>43281</v>
+      </c>
+      <c r="R6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>678912345</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7">
+        <v>243</v>
+      </c>
+      <c r="I7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M7">
+        <v>60</v>
+      </c>
+      <c r="N7" t="s">
+        <v>202</v>
+      </c>
+      <c r="O7" s="56">
+        <v>42952</v>
+      </c>
+      <c r="P7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q7" s="56">
+        <v>43281</v>
+      </c>
+      <c r="R7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>678912345</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8">
+        <v>3224</v>
+      </c>
+      <c r="I8" t="s">
+        <v>229</v>
+      </c>
+      <c r="M8">
+        <v>70</v>
+      </c>
+      <c r="N8" t="s">
+        <v>202</v>
+      </c>
+      <c r="O8" s="56">
+        <v>42952</v>
+      </c>
+      <c r="P8" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q8" s="56">
+        <v>43281</v>
+      </c>
+      <c r="R8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>678912345</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9">
+        <v>43434</v>
+      </c>
+      <c r="I9" t="s">
+        <v>231</v>
+      </c>
+      <c r="M9">
+        <v>80</v>
+      </c>
+      <c r="N9" t="s">
+        <v>202</v>
+      </c>
+      <c r="O9" s="56">
+        <v>42952</v>
+      </c>
+      <c r="P9" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q9" s="56">
+        <v>43281</v>
+      </c>
+      <c r="R9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>678912345</v>
+      </c>
+      <c r="C10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F10">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10">
+        <v>3442</v>
+      </c>
+      <c r="I10" t="s">
+        <v>234</v>
+      </c>
+      <c r="M10">
+        <v>90</v>
+      </c>
+      <c r="N10" t="s">
+        <v>202</v>
+      </c>
+      <c r="O10" s="56">
+        <v>42952</v>
+      </c>
+      <c r="P10" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q10" s="56">
+        <v>43281</v>
+      </c>
+      <c r="R10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>678912345</v>
+      </c>
+      <c r="C11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11">
+        <v>343</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11">
+        <v>23432</v>
+      </c>
+      <c r="I11" t="s">
+        <v>229</v>
+      </c>
+      <c r="M11">
+        <v>100</v>
+      </c>
+      <c r="N11" t="s">
+        <v>202</v>
+      </c>
+      <c r="O11" s="56">
+        <v>42952</v>
+      </c>
+      <c r="P11" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q11" s="56">
+        <v>43281</v>
+      </c>
+      <c r="R11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>678912345</v>
+      </c>
+      <c r="C12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12">
+        <v>23432</v>
+      </c>
+      <c r="I12" t="s">
+        <v>237</v>
+      </c>
+      <c r="M12">
+        <v>110</v>
+      </c>
+      <c r="N12" t="s">
+        <v>202</v>
+      </c>
+      <c r="O12" s="56">
+        <v>42952</v>
+      </c>
+      <c r="P12" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q12" s="56">
+        <v>43281</v>
+      </c>
+      <c r="R12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>678912345</v>
+      </c>
+      <c r="C13" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13">
+        <v>310158</v>
+      </c>
+      <c r="I13" t="s">
+        <v>240</v>
+      </c>
+      <c r="J13">
+        <v>115</v>
+      </c>
+      <c r="K13" t="s">
+        <v>241</v>
+      </c>
+      <c r="L13">
+        <v>62031</v>
+      </c>
+      <c r="M13">
+        <v>120</v>
+      </c>
+      <c r="N13" t="s">
+        <v>202</v>
+      </c>
+      <c r="O13" s="56">
+        <v>42952</v>
+      </c>
+      <c r="P13" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q13" s="56">
+        <v>43281</v>
+      </c>
+      <c r="R13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>678912345</v>
+      </c>
+      <c r="C14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" t="s">
+        <v>242</v>
+      </c>
+      <c r="E14" t="s">
+        <v>243</v>
+      </c>
+      <c r="F14" t="s">
+        <v>244</v>
+      </c>
+      <c r="G14" t="s">
+        <v>245</v>
+      </c>
+      <c r="H14">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>246</v>
+      </c>
+      <c r="J14">
+        <v>43</v>
+      </c>
+      <c r="M14">
+        <v>130</v>
+      </c>
+      <c r="N14" t="s">
+        <v>202</v>
+      </c>
+      <c r="O14" s="56">
+        <v>42952</v>
+      </c>
+      <c r="P14" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q14" s="56">
+        <v>43281</v>
+      </c>
+      <c r="R14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>678912345</v>
+      </c>
+      <c r="C15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E15" t="s">
+        <v>243</v>
+      </c>
+      <c r="F15" t="s">
+        <v>247</v>
+      </c>
+      <c r="G15" t="s">
+        <v>245</v>
+      </c>
+      <c r="H15">
+        <v>234</v>
+      </c>
+      <c r="I15" t="s">
+        <v>246</v>
+      </c>
+      <c r="J15">
+        <v>53</v>
+      </c>
+      <c r="M15">
+        <v>140</v>
+      </c>
+      <c r="N15" t="s">
+        <v>202</v>
+      </c>
+      <c r="O15" s="56">
+        <v>42952</v>
+      </c>
+      <c r="P15" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q15" s="56">
+        <v>43281</v>
+      </c>
+      <c r="R15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>678912345</v>
+      </c>
+      <c r="C16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" t="s">
+        <v>248</v>
+      </c>
+      <c r="G16" t="s">
+        <v>245</v>
+      </c>
+      <c r="H16">
+        <v>234234</v>
+      </c>
+      <c r="I16" t="s">
+        <v>246</v>
+      </c>
+      <c r="J16">
+        <v>22</v>
+      </c>
+      <c r="M16">
+        <v>150</v>
+      </c>
+      <c r="N16" t="s">
+        <v>202</v>
+      </c>
+      <c r="O16" s="56">
+        <v>42952</v>
+      </c>
+      <c r="P16" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q16" s="56">
+        <v>43281</v>
+      </c>
+      <c r="R16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>678912345</v>
+      </c>
+      <c r="C17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" t="s">
+        <v>242</v>
+      </c>
+      <c r="E17" t="s">
+        <v>243</v>
+      </c>
+      <c r="F17" t="s">
+        <v>249</v>
+      </c>
+      <c r="G17" t="s">
+        <v>245</v>
+      </c>
+      <c r="H17">
+        <v>32432</v>
+      </c>
+      <c r="I17" t="s">
+        <v>246</v>
+      </c>
+      <c r="J17">
+        <v>343</v>
+      </c>
+      <c r="M17">
+        <v>160</v>
+      </c>
+      <c r="N17" t="s">
+        <v>202</v>
+      </c>
+      <c r="O17" s="56">
+        <v>42952</v>
+      </c>
+      <c r="P17" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q17" s="56">
+        <v>43281</v>
+      </c>
+      <c r="R17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>678912345</v>
+      </c>
+      <c r="C18" t="s">
+        <v>250</v>
+      </c>
+      <c r="E18" t="s">
+        <v>228</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>245</v>
+      </c>
+      <c r="H18">
+        <v>58422</v>
+      </c>
+      <c r="I18" t="s">
+        <v>237</v>
+      </c>
+      <c r="J18">
+        <v>34</v>
+      </c>
+      <c r="K18" t="s">
+        <v>241</v>
+      </c>
+      <c r="L18">
+        <v>14605</v>
+      </c>
+      <c r="M18">
+        <v>180</v>
+      </c>
+      <c r="N18" t="s">
+        <v>202</v>
+      </c>
+      <c r="O18" s="56">
+        <v>42952</v>
+      </c>
+      <c r="P18" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q18" s="56">
+        <v>43281</v>
+      </c>
+      <c r="R18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>678912345</v>
+      </c>
+      <c r="C19" t="s">
+        <v>250</v>
+      </c>
+      <c r="D19" t="s">
+        <v>251</v>
+      </c>
+      <c r="E19" t="s">
+        <v>252</v>
+      </c>
+      <c r="F19" t="s">
+        <v>253</v>
+      </c>
+      <c r="G19" t="s">
+        <v>245</v>
+      </c>
+      <c r="H19">
+        <v>234</v>
+      </c>
+      <c r="I19" t="s">
+        <v>246</v>
+      </c>
+      <c r="J19">
+        <v>34</v>
+      </c>
+      <c r="M19">
+        <v>190</v>
+      </c>
+      <c r="N19" t="s">
+        <v>202</v>
+      </c>
+      <c r="O19" s="56">
+        <v>42952</v>
+      </c>
+      <c r="P19" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q19" s="56">
+        <v>43281</v>
+      </c>
+      <c r="R19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>678912345</v>
+      </c>
+      <c r="C20" t="s">
+        <v>250</v>
+      </c>
+      <c r="D20" t="s">
+        <v>251</v>
+      </c>
+      <c r="E20" t="s">
+        <v>254</v>
+      </c>
+      <c r="F20" t="s">
+        <v>255</v>
+      </c>
+      <c r="G20" t="s">
+        <v>245</v>
+      </c>
+      <c r="H20">
+        <v>23423</v>
+      </c>
+      <c r="I20" t="s">
+        <v>246</v>
+      </c>
+      <c r="J20">
+        <v>34</v>
+      </c>
+      <c r="M20">
+        <v>200</v>
+      </c>
+      <c r="N20" t="s">
+        <v>202</v>
+      </c>
+      <c r="O20" s="56">
+        <v>42952</v>
+      </c>
+      <c r="P20" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q20" s="56">
+        <v>43281</v>
+      </c>
+      <c r="R20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>678912345</v>
+      </c>
+      <c r="C21" t="s">
+        <v>250</v>
+      </c>
+      <c r="D21" t="s">
+        <v>251</v>
+      </c>
+      <c r="E21" t="s">
+        <v>256</v>
+      </c>
+      <c r="F21" t="s">
+        <v>257</v>
+      </c>
+      <c r="G21" t="s">
+        <v>245</v>
+      </c>
+      <c r="H21">
+        <v>32423</v>
+      </c>
+      <c r="I21" t="s">
+        <v>246</v>
+      </c>
+      <c r="J21">
+        <v>34</v>
+      </c>
+      <c r="M21">
+        <v>210</v>
+      </c>
+      <c r="N21" t="s">
+        <v>202</v>
+      </c>
+      <c r="O21" s="56">
+        <v>42952</v>
+      </c>
+      <c r="P21" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q21" s="56">
+        <v>43281</v>
+      </c>
+      <c r="R21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>678912345</v>
+      </c>
+      <c r="C22" t="s">
+        <v>250</v>
+      </c>
+      <c r="D22" t="s">
+        <v>251</v>
+      </c>
+      <c r="E22" t="s">
+        <v>258</v>
+      </c>
+      <c r="F22" t="s">
+        <v>259</v>
+      </c>
+      <c r="G22" t="s">
+        <v>245</v>
+      </c>
+      <c r="H22">
+        <v>2342</v>
+      </c>
+      <c r="I22" t="s">
+        <v>246</v>
+      </c>
+      <c r="J22">
+        <v>34</v>
+      </c>
+      <c r="M22">
+        <v>220</v>
+      </c>
+      <c r="N22" t="s">
+        <v>202</v>
+      </c>
+      <c r="O22" s="56">
+        <v>42952</v>
+      </c>
+      <c r="P22" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q22" s="56">
+        <v>43281</v>
+      </c>
+      <c r="R22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>678912345</v>
+      </c>
+      <c r="C23" t="s">
+        <v>260</v>
+      </c>
+      <c r="E23" t="s">
+        <v>228</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>261</v>
+      </c>
+      <c r="H23">
+        <v>31594</v>
+      </c>
+      <c r="I23" t="s">
+        <v>237</v>
+      </c>
+      <c r="J23">
+        <v>34</v>
+      </c>
+      <c r="K23" t="s">
+        <v>241</v>
+      </c>
+      <c r="L23">
+        <v>6318</v>
+      </c>
+      <c r="M23">
+        <v>240</v>
+      </c>
+      <c r="N23" t="s">
+        <v>202</v>
+      </c>
+      <c r="O23" s="56">
+        <v>42952</v>
+      </c>
+      <c r="P23" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q23" s="56">
+        <v>43281</v>
+      </c>
+      <c r="R23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>678912345</v>
+      </c>
+      <c r="C24" t="s">
+        <v>260</v>
+      </c>
+      <c r="D24" t="s">
+        <v>262</v>
+      </c>
+      <c r="E24" t="s">
+        <v>263</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>245</v>
+      </c>
+      <c r="H24">
+        <v>3243</v>
+      </c>
+      <c r="I24" t="s">
+        <v>246</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>250</v>
+      </c>
+      <c r="N24" t="s">
+        <v>202</v>
+      </c>
+      <c r="O24" s="56">
+        <v>42952</v>
+      </c>
+      <c r="P24" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q24" s="56">
+        <v>43281</v>
+      </c>
+      <c r="R24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>678912345</v>
+      </c>
+      <c r="C25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D25" t="s">
+        <v>262</v>
+      </c>
+      <c r="E25" t="s">
+        <v>264</v>
+      </c>
+      <c r="F25">
+        <v>34</v>
+      </c>
+      <c r="G25" t="s">
+        <v>245</v>
+      </c>
+      <c r="H25">
+        <v>2343</v>
+      </c>
+      <c r="I25" t="s">
+        <v>246</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>260</v>
+      </c>
+      <c r="N25" t="s">
+        <v>202</v>
+      </c>
+      <c r="O25" s="56">
+        <v>42952</v>
+      </c>
+      <c r="P25" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q25" s="56">
+        <v>43281</v>
+      </c>
+      <c r="R25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>678912345</v>
+      </c>
+      <c r="C26" t="s">
+        <v>260</v>
+      </c>
+      <c r="D26" t="s">
+        <v>262</v>
+      </c>
+      <c r="E26" t="s">
+        <v>265</v>
+      </c>
+      <c r="F26">
+        <v>342</v>
+      </c>
+      <c r="G26" t="s">
+        <v>245</v>
+      </c>
+      <c r="H26">
+        <v>234</v>
+      </c>
+      <c r="I26" t="s">
+        <v>246</v>
+      </c>
+      <c r="J26">
+        <v>43</v>
+      </c>
+      <c r="M26">
+        <v>270</v>
+      </c>
+      <c r="N26" t="s">
+        <v>202</v>
+      </c>
+      <c r="O26" s="56">
+        <v>42952</v>
+      </c>
+      <c r="P26" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q26" s="56">
+        <v>43281</v>
+      </c>
+      <c r="R26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>678912345</v>
+      </c>
+      <c r="C27" t="s">
+        <v>260</v>
+      </c>
+      <c r="D27" t="s">
+        <v>262</v>
+      </c>
+      <c r="E27" t="s">
+        <v>266</v>
+      </c>
+      <c r="F27">
+        <v>343</v>
+      </c>
+      <c r="G27" t="s">
+        <v>245</v>
+      </c>
+      <c r="H27">
+        <v>2342</v>
+      </c>
+      <c r="I27" t="s">
+        <v>246</v>
+      </c>
+      <c r="J27">
+        <v>34</v>
+      </c>
+      <c r="M27">
+        <v>280</v>
+      </c>
+      <c r="N27" t="s">
+        <v>202</v>
+      </c>
+      <c r="O27" s="56">
+        <v>42952</v>
+      </c>
+      <c r="P27" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q27" s="56">
+        <v>43281</v>
+      </c>
+      <c r="R27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>678912345</v>
+      </c>
+      <c r="C28" t="s">
+        <v>260</v>
+      </c>
+      <c r="D28" t="s">
+        <v>262</v>
+      </c>
+      <c r="E28" t="s">
+        <v>267</v>
+      </c>
+      <c r="F28">
+        <v>453</v>
+      </c>
+      <c r="G28" t="s">
+        <v>245</v>
+      </c>
+      <c r="H28">
+        <v>23432</v>
+      </c>
+      <c r="I28" t="s">
+        <v>246</v>
+      </c>
+      <c r="J28">
+        <v>34</v>
+      </c>
+      <c r="M28">
+        <v>290</v>
+      </c>
+      <c r="N28" t="s">
+        <v>202</v>
+      </c>
+      <c r="O28" s="56">
+        <v>42952</v>
+      </c>
+      <c r="P28" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q28" s="56">
+        <v>43281</v>
+      </c>
+      <c r="R28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>678912345</v>
+      </c>
+      <c r="C29" t="s">
+        <v>268</v>
+      </c>
+      <c r="D29" t="s">
+        <v>268</v>
+      </c>
+      <c r="E29" t="s">
+        <v>269</v>
+      </c>
+      <c r="F29">
+        <v>3243</v>
+      </c>
+      <c r="G29" t="s">
+        <v>270</v>
+      </c>
+      <c r="I29" t="s">
+        <v>271</v>
+      </c>
+      <c r="K29" t="s">
+        <v>272</v>
+      </c>
+      <c r="L29">
+        <v>50</v>
+      </c>
+      <c r="M29">
+        <v>300</v>
+      </c>
+      <c r="N29" t="s">
+        <v>202</v>
+      </c>
+      <c r="O29" s="56">
+        <v>42952</v>
+      </c>
+      <c r="P29" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q29" s="56">
+        <v>43281</v>
+      </c>
+      <c r="R29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>678912345</v>
+      </c>
+      <c r="C30" t="s">
+        <v>273</v>
+      </c>
+      <c r="D30" t="s">
+        <v>273</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="46">
+        <v>39904</v>
+      </c>
+      <c r="G30" t="s">
+        <v>221</v>
+      </c>
+      <c r="H30" s="46">
+        <v>40269</v>
+      </c>
+      <c r="I30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30">
+        <v>342</v>
+      </c>
+      <c r="K30" t="s">
+        <v>274</v>
+      </c>
+      <c r="L30">
+        <v>343</v>
+      </c>
+      <c r="M30">
+        <v>310</v>
+      </c>
+      <c r="N30" t="s">
+        <v>202</v>
+      </c>
+      <c r="O30" s="56">
+        <v>42952</v>
+      </c>
+      <c r="P30" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q30" s="56">
+        <v>43281</v>
+      </c>
+      <c r="R30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>